--- a/TSM/TSM.xlsx
+++ b/TSM/TSM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="724" documentId="8_{D4EC6B1B-2F0F-4ED7-89F1-7A11E0A3A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46598523-BCB6-4C4B-B62E-C4C3B0CE7EAD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2540" yWindow="2320" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{4ED5217B-608A-466E-A354-301D0BD2241A}"/>
+    <workbookView minimized="1" xWindow="2540" yWindow="2320" windowWidth="26720" windowHeight="17120" firstSheet="2" activeTab="2" xr2:uid="{4ED5217B-608A-466E-A354-301D0BD2241A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,6 +83,9 @@
     <t>Shares</t>
   </si>
   <si>
+    <t>*in millions</t>
+  </si>
+  <si>
     <t>MC</t>
   </si>
   <si>
@@ -95,27 +98,36 @@
     <t>EV</t>
   </si>
   <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Taiwan Semiconductor Manufacturing ADR</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
     <t>TSM</t>
   </si>
   <si>
-    <t>*in millions</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
+    <t xml:space="preserve">Taiwan   </t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
+    <t>Infomration Technology</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes </t>
   </si>
   <si>
@@ -123,18 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">- TSM produces 92% of chips that are less than 7 nanometers. The other 8% are manufactured in South Korea. Currently no &lt;=7nm are produced in the US. </t>
-  </si>
-  <si>
-    <t>Taiwan Semiconductor Manufacturing ADR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan   </t>
-  </si>
-  <si>
-    <t>Infomration Technology</t>
-  </si>
-  <si>
-    <t>Semiconductors</t>
   </si>
   <si>
     <t xml:space="preserve">CHIPs ACT </t>
@@ -229,9 +229,150 @@
     <t>Average</t>
   </si>
   <si>
+    <t>Revenue Breakdown *in millions, USD</t>
+  </si>
+  <si>
+    <t>Revenue by Wafer Resolution</t>
+  </si>
+  <si>
+    <t>5-nanometer</t>
+  </si>
+  <si>
+    <t>7-nanometer</t>
+  </si>
+  <si>
+    <t>16-nanometer</t>
+  </si>
+  <si>
+    <t>20-nanometer</t>
+  </si>
+  <si>
+    <t>28-nanometer</t>
+  </si>
+  <si>
+    <t>40/45 nanometer</t>
+  </si>
+  <si>
+    <t>65-nanometer</t>
+  </si>
+  <si>
+    <t>90-nanometer</t>
+  </si>
+  <si>
+    <t>0.11/0.13 micron</t>
+  </si>
+  <si>
+    <t>0.15/0.18 micron</t>
+  </si>
+  <si>
+    <t>&gt;=0.25 micron</t>
+  </si>
+  <si>
+    <t>Total %</t>
+  </si>
+  <si>
+    <t>Income Statement *in millions, USD</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGs</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Non-operating income and Expenses</t>
+  </si>
+  <si>
+    <t>Share of profits of associates</t>
+  </si>
+  <si>
+    <t>Net Interest Income</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign exchange gain </t>
+  </si>
+  <si>
+    <t>Fincance cost</t>
+  </si>
+  <si>
+    <t>Other gains and losses</t>
+  </si>
+  <si>
+    <t>Total Non-operating  income</t>
+  </si>
+  <si>
+    <t>Income before Tax</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income, including noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Other comprehensive income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Comprehenvisve income</t>
+  </si>
+  <si>
+    <t>Net Income Attributable To</t>
+  </si>
+  <si>
+    <t>Shareholders of Parent</t>
+  </si>
+  <si>
+    <t>Noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS - Diluted</t>
+  </si>
+  <si>
+    <t>EPS ADR - Diluted</t>
+  </si>
+  <si>
+    <t>Shares (Regular) - Diluted</t>
+  </si>
+  <si>
+    <t>Shares (ADR) - Diluted</t>
+  </si>
+  <si>
     <t>Balance Sheet *in millions, USD</t>
   </si>
   <si>
+    <t>*NTD Exchange Rate</t>
+  </si>
+  <si>
     <t>Current Assets</t>
   </si>
   <si>
@@ -262,6 +403,15 @@
     <t>Right-of-use, intangible and other non-current assets</t>
   </si>
   <si>
+    <t>Deferred income tax assets</t>
+  </si>
+  <si>
+    <t>Refundable deposits</t>
+  </si>
+  <si>
+    <t>Other noncurrent assets</t>
+  </si>
+  <si>
     <t>Total Non-current Asset</t>
   </si>
   <si>
@@ -271,15 +421,39 @@
     <t>Current Liabilities</t>
   </si>
   <si>
+    <t>Short-term loans</t>
+  </si>
+  <si>
+    <t>Financial liabilities at failr value</t>
+  </si>
+  <si>
+    <t>Hedging financial liabilities</t>
+  </si>
+  <si>
     <t>AP</t>
   </si>
   <si>
+    <t>Payables to related parties</t>
+  </si>
+  <si>
+    <t>Salary and bonus payable</t>
+  </si>
+  <si>
+    <t>Accrued profit sharing bonus to employees and compensation to directors</t>
+  </si>
+  <si>
     <t>Payables to contractors and equipments suppliers</t>
   </si>
   <si>
     <t>Cash dividends paybale</t>
   </si>
   <si>
+    <t>Income taxes payable</t>
+  </si>
+  <si>
+    <t>Long-term liabilities - current portion</t>
+  </si>
+  <si>
     <t>Accrued expenses and other current liabilities</t>
   </si>
   <si>
@@ -292,6 +466,21 @@
     <t>Bonds payable</t>
   </si>
   <si>
+    <t>Long-term bank loans</t>
+  </si>
+  <si>
+    <t>Deferred income tax liabilities</t>
+  </si>
+  <si>
+    <t>Lease liabilities</t>
+  </si>
+  <si>
+    <t>Net defined benefit liability</t>
+  </si>
+  <si>
+    <t>Guarantee deposits</t>
+  </si>
+  <si>
     <t>Other non-current liabilities</t>
   </si>
   <si>
@@ -325,99 +514,12 @@
     <t>Equity Attirbutable to Shareholders of the Parent</t>
   </si>
   <si>
-    <t>Noncontrolling interests</t>
-  </si>
-  <si>
     <t>Total Shareholders Equity</t>
   </si>
   <si>
     <t>Total Equity &amp; Liabilities</t>
   </si>
   <si>
-    <t>*NTD Exchange Rate</t>
-  </si>
-  <si>
-    <t>Income Statement *in millions, USD</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>COGs</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>Total Operating Expenses</t>
-  </si>
-  <si>
-    <t>Operating Income</t>
-  </si>
-  <si>
-    <t>Non-operating income and Expenses</t>
-  </si>
-  <si>
-    <t>Share of profits of associates</t>
-  </si>
-  <si>
-    <t>Net Interest Income</t>
-  </si>
-  <si>
-    <t>Other gains and losses</t>
-  </si>
-  <si>
-    <t>Total Non-operating  income</t>
-  </si>
-  <si>
-    <t>Income before Tax</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Other comprehensive income</t>
-  </si>
-  <si>
-    <t>Comprehenvisve income</t>
-  </si>
-  <si>
-    <t>Net Income Attributable To</t>
-  </si>
-  <si>
-    <t>Shareholders of Parent</t>
-  </si>
-  <si>
-    <t>Net Income, including noncontrolling interests</t>
-  </si>
-  <si>
-    <t>EPS - Diluted</t>
-  </si>
-  <si>
-    <t>EPS ADR - Diluted</t>
-  </si>
-  <si>
-    <t>Shares (Regular) - Diluted</t>
-  </si>
-  <si>
-    <t>Shares (ADR) - Diluted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other </t>
-  </si>
-  <si>
     <t>Cash Flow *in millions, USD</t>
   </si>
   <si>
@@ -431,108 +533,6 @@
   </si>
   <si>
     <t>3-month Adjusted</t>
-  </si>
-  <si>
-    <t>Deferred income tax assets</t>
-  </si>
-  <si>
-    <t>Refundable deposits</t>
-  </si>
-  <si>
-    <t>Other noncurrent assets</t>
-  </si>
-  <si>
-    <t>Short-term loans</t>
-  </si>
-  <si>
-    <t>Financial liabilities at failr value</t>
-  </si>
-  <si>
-    <t>Hedging financial liabilities</t>
-  </si>
-  <si>
-    <t>Payables to related parties</t>
-  </si>
-  <si>
-    <t>Salary and bonus payable</t>
-  </si>
-  <si>
-    <t>Accrued profit sharing bonus to employees and compensation to directors</t>
-  </si>
-  <si>
-    <t>Income taxes payable</t>
-  </si>
-  <si>
-    <t>Long-term liabilities - current portion</t>
-  </si>
-  <si>
-    <t>Long-term bank loans</t>
-  </si>
-  <si>
-    <t>Deferred income tax liabilities</t>
-  </si>
-  <si>
-    <t>Lease liabilities</t>
-  </si>
-  <si>
-    <t>Net defined benefit liability</t>
-  </si>
-  <si>
-    <t>Guarantee deposits</t>
-  </si>
-  <si>
-    <t>Revenue Breakdown *in millions, USD</t>
-  </si>
-  <si>
-    <t>Revenue by Wafer Resolution</t>
-  </si>
-  <si>
-    <t>5-nanometer</t>
-  </si>
-  <si>
-    <t>7-nanometer</t>
-  </si>
-  <si>
-    <t>16-nanometer</t>
-  </si>
-  <si>
-    <t>20-nanometer</t>
-  </si>
-  <si>
-    <t>28-nanometer</t>
-  </si>
-  <si>
-    <t>40/45 nanometer</t>
-  </si>
-  <si>
-    <t>65-nanometer</t>
-  </si>
-  <si>
-    <t>90-nanometer</t>
-  </si>
-  <si>
-    <t>0.11/0.13 micron</t>
-  </si>
-  <si>
-    <t>0.15/0.18 micron</t>
-  </si>
-  <si>
-    <t>&gt;=0.25 micron</t>
-  </si>
-  <si>
-    <t>Total %</t>
-  </si>
-  <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign exchange gain </t>
-  </si>
-  <si>
-    <t>Fincance cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,10 +699,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1448,14 +1444,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1460,7 @@
         <v>92.41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="4" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1473,34 +1469,34 @@
         <v>5186.4139999999998</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <f>B2*B3</f>
         <v>479276.51773999998</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1516,86 +1512,86 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>45235</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" s="7" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="9" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1611,29 +1607,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:32">
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -1690,39 +1686,39 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" s="5" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:32">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32">
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:32">
       <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:32" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" s="5" customFormat="1">
       <c r="B20" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" s="18" customFormat="1">
       <c r="B21" s="18" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="AD21" s="18">
         <v>0.08</v>
@@ -1734,9 +1730,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="22" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:38" s="18" customFormat="1">
       <c r="B22" s="18" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="AD22" s="18">
         <v>0.33</v>
@@ -1748,9 +1744,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="23" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:38" s="18" customFormat="1">
       <c r="B23" s="18" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="AD23" s="18">
         <v>0.17</v>
@@ -1762,9 +1758,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="24" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:38" s="18" customFormat="1">
       <c r="B24" s="18" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AD24" s="18">
         <v>0.01</v>
@@ -1776,9 +1772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:38" s="18" customFormat="1">
       <c r="B25" s="18" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="AD25" s="18">
         <v>0.13</v>
@@ -1790,9 +1786,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:38" s="18" customFormat="1">
       <c r="B26" s="18" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AD26" s="18">
         <v>0.09</v>
@@ -1804,9 +1800,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:38" s="18" customFormat="1">
       <c r="B27" s="18" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="AD27" s="18">
         <v>0.05</v>
@@ -1818,9 +1814,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:38" s="18" customFormat="1">
       <c r="B28" s="18" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AD28" s="18">
         <v>0.02</v>
@@ -1832,9 +1828,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:38" s="18" customFormat="1">
       <c r="B29" s="18" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="AD29" s="18">
         <v>0.03</v>
@@ -1846,9 +1842,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="2:38" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:38" s="18" customFormat="1">
       <c r="B30" s="18" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="AD30" s="18">
         <v>7.0000000000000007E-2</v>
@@ -1860,9 +1856,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:38" s="19" customFormat="1">
       <c r="B31" s="19" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AD31" s="19">
         <v>0.02</v>
@@ -1874,9 +1870,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:38">
       <c r="B32" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="U32" s="18">
         <f>SUM(U21:U31)</f>
@@ -1951,14 +1947,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:32" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:32" s="5" customFormat="1">
       <c r="B33" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" s="4" customFormat="1">
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N34" s="4">
         <v>17278</v>
@@ -1967,9 +1963,9 @@
         <v>73670.399999999994</v>
       </c>
     </row>
-    <row r="35" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:32" s="11" customFormat="1">
       <c r="B35" s="11" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N35" s="11">
         <v>-7903</v>
@@ -1978,9 +1974,9 @@
         <v>29792.9</v>
       </c>
     </row>
-    <row r="36" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:32" s="4" customFormat="1">
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E36" s="4">
         <f>SUM(E34:E35)</f>
@@ -2047,20 +2043,20 @@
         <v>43877.499999999993</v>
       </c>
     </row>
-    <row r="37" spans="2:32" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:32" s="18" customFormat="1">
       <c r="AF37" s="18">
         <f>AF36/AF34</f>
         <v>0.59559198809834069</v>
       </c>
     </row>
-    <row r="38" spans="2:32" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:32" s="12" customFormat="1">
       <c r="B38" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" s="4" customFormat="1">
       <c r="B39" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N39" s="4">
         <v>-1616</v>
@@ -2069,9 +2065,9 @@
         <v>5312.9</v>
       </c>
     </row>
-    <row r="40" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:32" s="4" customFormat="1">
       <c r="B40" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N40" s="4">
         <v>-556</v>
@@ -2081,9 +2077,9 @@
         <v>2064.5</v>
       </c>
     </row>
-    <row r="41" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:32" s="11" customFormat="1">
       <c r="B41" s="11" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="N41" s="11">
         <v>4</v>
@@ -2092,9 +2088,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:32" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:32" s="13" customFormat="1">
       <c r="B42" s="13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E42" s="13">
         <f>SUM(E39:E41)</f>
@@ -2161,9 +2157,9 @@
         <v>7389.4</v>
       </c>
     </row>
-    <row r="43" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:32" s="4" customFormat="1">
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E43" s="4">
         <f>E36+E42</f>
@@ -2230,14 +2226,14 @@
         <v>36488.099999999991</v>
       </c>
     </row>
-    <row r="44" spans="2:32" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:32" s="12" customFormat="1">
       <c r="B44" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" s="4" customFormat="1">
       <c r="B45" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N45" s="4">
         <v>37</v>
@@ -2246,9 +2242,9 @@
         <v>249.9</v>
       </c>
     </row>
-    <row r="46" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:32" s="4" customFormat="1">
       <c r="B46" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N46" s="4">
         <v>395</v>
@@ -2257,33 +2253,33 @@
         <v>729.7</v>
       </c>
     </row>
-    <row r="47" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:32" s="4" customFormat="1">
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="AF47" s="4">
         <v>30.8</v>
       </c>
     </row>
-    <row r="48" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:32" s="4" customFormat="1">
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="AF48" s="4">
         <v>146.6</v>
       </c>
     </row>
-    <row r="49" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:38" s="4" customFormat="1">
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="AF49" s="4">
         <v>-382.4</v>
       </c>
     </row>
-    <row r="50" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:38" s="11" customFormat="1">
       <c r="B50" s="11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N50" s="11">
         <v>7</v>
@@ -2292,9 +2288,9 @@
         <v>-32.9</v>
       </c>
     </row>
-    <row r="51" spans="2:38" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:38" s="13" customFormat="1">
       <c r="B51" s="13" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E51" s="13">
         <f>SUM(E45:E50)</f>
@@ -2361,9 +2357,9 @@
         <v>741.7</v>
       </c>
     </row>
-    <row r="52" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:38" s="4" customFormat="1">
       <c r="B52" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E52" s="4">
         <f>E43+E51</f>
@@ -2430,9 +2426,9 @@
         <v>37229.799999999988</v>
       </c>
     </row>
-    <row r="53" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:38" s="11" customFormat="1">
       <c r="B53" s="11" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N53" s="11">
         <v>-984</v>
@@ -2441,9 +2437,9 @@
         <v>4906.5</v>
       </c>
     </row>
-    <row r="54" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:38" s="4" customFormat="1">
       <c r="B54" s="4" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E54" s="4">
         <f>SUM(E52:E53)</f>
@@ -2578,20 +2574,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:38" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:38" s="19" customFormat="1">
       <c r="B55" s="19" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="N55" s="19">
         <v>823</v>
       </c>
       <c r="AF55" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" s="4" customFormat="1">
       <c r="B56" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E56" s="4">
         <f>SUM(E54:E55)</f>
@@ -2654,30 +2650,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:38" s="12" customFormat="1">
       <c r="B57" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:38" s="4" customFormat="1">
       <c r="B58" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N58" s="4">
         <v>6668</v>
       </c>
     </row>
-    <row r="59" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:38" s="11" customFormat="1">
       <c r="B59" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N59" s="11">
         <v>-6</v>
       </c>
     </row>
-    <row r="60" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:38" s="4" customFormat="1">
       <c r="B60" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E60" s="4">
         <f>SUM(E58:E59)</f>
@@ -2740,9 +2736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:38" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:38" s="16" customFormat="1">
       <c r="B62" s="16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E62" s="16" t="e">
         <f>E60/E64</f>
@@ -2805,9 +2801,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="2:38" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:38" s="16" customFormat="1">
       <c r="B63" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E63" s="16" t="e">
         <f>E60/E65</f>
@@ -2870,9 +2866,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:38" s="4" customFormat="1">
       <c r="B64" s="4" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="L64" s="4">
         <v>25929</v>
@@ -2884,9 +2880,9 @@
         <v>25929</v>
       </c>
     </row>
-    <row r="65" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:38" s="4" customFormat="1">
       <c r="B65" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="L65" s="4">
         <f>L64/5</f>
@@ -2901,25 +2897,25 @@
         <v>5185.8</v>
       </c>
     </row>
-    <row r="67" spans="2:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:38" s="5" customFormat="1">
       <c r="B67" s="5" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N67" s="5">
         <v>32.281100000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:38" s="7" customFormat="1">
       <c r="B68" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:38" s="4" customFormat="1">
       <c r="B69" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N69" s="4">
         <v>40637</v>
@@ -2928,9 +2924,9 @@
         <v>43697.2</v>
       </c>
     </row>
-    <row r="70" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:38" s="4" customFormat="1">
       <c r="B70" s="4" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N70" s="4">
         <v>7420</v>
@@ -2940,9 +2936,9 @@
         <v>7115.9000000000005</v>
       </c>
     </row>
-    <row r="71" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:38" s="4" customFormat="1">
       <c r="B71" s="4" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="N71" s="4">
         <v>6903</v>
@@ -2952,9 +2948,9 @@
         <v>7530.4000000000005</v>
       </c>
     </row>
-    <row r="72" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:38" s="4" customFormat="1">
       <c r="B72" s="4" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="N72" s="4">
         <v>8119</v>
@@ -2963,9 +2959,9 @@
         <v>7196.5</v>
       </c>
     </row>
-    <row r="73" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:38" s="11" customFormat="1">
       <c r="B73" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="N73" s="11">
         <v>1432</v>
@@ -2975,9 +2971,9 @@
         <v>1264.3</v>
       </c>
     </row>
-    <row r="74" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:38" s="4" customFormat="1">
       <c r="B74" s="4" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E74" s="4">
         <f>SUM(E69:E73)</f>
@@ -3108,14 +3104,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:38" s="12" customFormat="1">
       <c r="B75" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:38" s="4" customFormat="1">
       <c r="B76" s="4" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="N76" s="4">
         <v>3604</v>
@@ -3125,9 +3121,9 @@
         <v>2232.6</v>
       </c>
     </row>
-    <row r="77" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:38" s="4" customFormat="1">
       <c r="B77" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="N77" s="4">
         <v>97043</v>
@@ -3136,9 +3132,9 @@
         <v>87661.5</v>
       </c>
     </row>
-    <row r="78" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:38" s="4" customFormat="1">
       <c r="B78" s="4" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N78" s="4">
         <v>4742</v>
@@ -3148,33 +3144,33 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="79" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:38" s="4" customFormat="1">
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AF79" s="4">
         <v>2251.4</v>
       </c>
     </row>
-    <row r="80" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:38" s="4" customFormat="1">
       <c r="B80" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF80" s="4">
         <v>145.4</v>
       </c>
     </row>
-    <row r="81" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:38" s="11" customFormat="1">
       <c r="B81" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AF81" s="11">
         <v>245.7</v>
       </c>
     </row>
-    <row r="82" spans="2:38" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:38" s="13" customFormat="1">
       <c r="B82" s="13" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E82" s="13">
         <f>SUM(E76:E81)</f>
@@ -3305,9 +3301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:38" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:38" s="14" customFormat="1">
       <c r="B83" s="14" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E83" s="14">
         <f t="shared" ref="E83:S83" si="49">E82+E74</f>
@@ -3438,38 +3434,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:38" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:38" s="12" customFormat="1">
       <c r="B84" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="2:38" s="17" customFormat="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="2:38" s="17" customFormat="1">
       <c r="B85" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AF85" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:38" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:38" s="17" customFormat="1">
       <c r="B86" s="17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AF86" s="17">
         <v>3.8</v>
       </c>
     </row>
-    <row r="87" spans="2:38" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:38" s="17" customFormat="1">
       <c r="B87" s="17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AF87" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:38" s="4" customFormat="1">
       <c r="B88" s="4" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N88" s="4">
         <v>1666</v>
@@ -3478,33 +3474,33 @@
         <v>1785.9</v>
       </c>
     </row>
-    <row r="89" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:38" s="4" customFormat="1">
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AF89" s="4">
         <v>53.4</v>
       </c>
     </row>
-    <row r="90" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:38" s="4" customFormat="1">
       <c r="B90" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AF90" s="4">
         <v>1185.7</v>
       </c>
     </row>
-    <row r="91" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:38" s="4" customFormat="1">
       <c r="B91" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AF91" s="4">
         <v>2009.4</v>
       </c>
     </row>
-    <row r="92" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:38" s="4" customFormat="1">
       <c r="B92" s="4" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N92" s="4">
         <v>7151</v>
@@ -3513,9 +3509,9 @@
         <v>6947.6</v>
       </c>
     </row>
-    <row r="93" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:38" s="4" customFormat="1">
       <c r="B93" s="4" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="N93" s="4">
         <v>4820</v>
@@ -3524,25 +3520,25 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="94" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:38" s="4" customFormat="1">
       <c r="B94" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AF94" s="4">
         <v>5308.8</v>
       </c>
     </row>
-    <row r="95" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:38" s="4" customFormat="1">
       <c r="B95" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AF95" s="4">
         <v>628.5</v>
       </c>
     </row>
-    <row r="96" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:38" s="11" customFormat="1">
       <c r="B96" s="11" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N96" s="11">
         <v>16183</v>
@@ -3551,9 +3547,9 @@
         <v>9540.2000000000007</v>
       </c>
     </row>
-    <row r="97" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:32" s="4" customFormat="1">
       <c r="B97" s="4" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E97" s="4">
         <f t="shared" ref="E97:S97" si="51">SUM(E88:E96)</f>
@@ -3620,14 +3616,14 @@
         <v>32104.300000000003</v>
       </c>
     </row>
-    <row r="98" spans="2:32" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:32" s="12" customFormat="1">
       <c r="B98" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" s="4" customFormat="1">
       <c r="B99" s="4" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="N99" s="4">
         <v>28886</v>
@@ -3636,7 +3632,7 @@
         <v>27150.400000000001</v>
       </c>
     </row>
-    <row r="100" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:32" s="4" customFormat="1">
       <c r="B100" s="4" t="s">
         <v>110</v>
       </c>
@@ -3644,7 +3640,7 @@
         <v>154.9</v>
       </c>
     </row>
-    <row r="101" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:32" s="4" customFormat="1">
       <c r="B101" s="4" t="s">
         <v>111</v>
       </c>
@@ -3652,7 +3648,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="102" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:32" s="4" customFormat="1">
       <c r="B102" s="4" t="s">
         <v>112</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>968.6</v>
       </c>
     </row>
-    <row r="103" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:32" s="4" customFormat="1">
       <c r="B103" s="4" t="s">
         <v>113</v>
       </c>
@@ -3668,7 +3664,7 @@
         <v>303.3</v>
       </c>
     </row>
-    <row r="104" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:32" s="4" customFormat="1">
       <c r="B104" s="4" t="s">
         <v>114</v>
       </c>
@@ -3676,9 +3672,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:32" s="11" customFormat="1">
       <c r="B105" s="11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="N105" s="11">
         <v>6481</v>
@@ -3687,9 +3683,9 @@
         <v>5856.1</v>
       </c>
     </row>
-    <row r="106" spans="2:32" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:32" s="13" customFormat="1">
       <c r="B106" s="13" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="E106" s="13">
         <f>SUM(E99:E105)</f>
@@ -3756,9 +3752,9 @@
         <v>34496</v>
       </c>
     </row>
-    <row r="107" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:32" s="14" customFormat="1">
       <c r="B107" s="14" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="E107" s="14">
         <f>E106+E97</f>
@@ -3825,14 +3821,14 @@
         <v>66600.3</v>
       </c>
     </row>
-    <row r="108" spans="2:32" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:32" s="12" customFormat="1">
       <c r="B108" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" s="4" customFormat="1">
       <c r="B109" s="4" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="N109" s="4">
         <v>8033</v>
@@ -3841,9 +3837,9 @@
         <v>8438.1</v>
       </c>
     </row>
-    <row r="110" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:32" s="4" customFormat="1">
       <c r="B110" s="4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="N110" s="4">
         <v>2165</v>
@@ -3852,9 +3848,9 @@
         <v>2256.1</v>
       </c>
     </row>
-    <row r="111" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:32" s="4" customFormat="1">
       <c r="B111" s="4" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="N111" s="4">
         <v>9639</v>
@@ -3863,9 +3859,9 @@
         <v>10125.200000000001</v>
       </c>
     </row>
-    <row r="112" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:32" s="4" customFormat="1">
       <c r="B112" s="4" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="N112" s="4">
         <v>533</v>
@@ -3874,9 +3870,9 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="113" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:32" s="4" customFormat="1">
       <c r="B113" s="4" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="N113" s="4">
         <v>83088</v>
@@ -3885,9 +3881,9 @@
         <v>74213.8</v>
       </c>
     </row>
-    <row r="114" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:32" s="11" customFormat="1">
       <c r="B114" s="11" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="N114" s="11">
         <v>267</v>
@@ -3896,9 +3892,9 @@
         <v>-667.2</v>
       </c>
     </row>
-    <row r="115" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:32" s="4" customFormat="1">
       <c r="B115" s="4" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="E115" s="4">
         <f>SUM(E109:E114)</f>
@@ -3965,9 +3961,9 @@
         <v>94468.6</v>
       </c>
     </row>
-    <row r="116" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:32" s="11" customFormat="1">
       <c r="B116" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N116" s="11">
         <v>758</v>
@@ -3976,9 +3972,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="2:32" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:32" s="13" customFormat="1">
       <c r="B117" s="13" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E117" s="13">
         <f>SUM(E115:E116)</f>
@@ -4045,9 +4041,9 @@
         <v>94950.6</v>
       </c>
     </row>
-    <row r="118" spans="2:32" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:32" s="14" customFormat="1">
       <c r="B118" s="14" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E118" s="14">
         <f>E117+E107</f>
@@ -4114,46 +4110,46 @@
         <v>161550.90000000002</v>
       </c>
     </row>
-    <row r="119" spans="2:32" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:32" s="15" customFormat="1">
       <c r="B119" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="120" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32" s="4" customFormat="1">
       <c r="B120" s="4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="N120" s="4">
         <v>27392</v>
       </c>
     </row>
-    <row r="121" spans="2:32" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:32" s="11" customFormat="1">
       <c r="B121" s="11" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="N121" s="11">
         <v>-25210</v>
       </c>
     </row>
-    <row r="122" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:32" s="4" customFormat="1">
       <c r="B122" s="4" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="N122" s="4">
         <f>SUM(N120:N121)</f>
         <v>2182</v>
       </c>
     </row>
-    <row r="123" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="2:32" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="2:2" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:32" s="4" customFormat="1"/>
+    <row r="124" spans="2:32" s="4" customFormat="1"/>
+    <row r="125" spans="2:32" s="4" customFormat="1"/>
+    <row r="126" spans="2:32" s="4" customFormat="1"/>
+    <row r="127" spans="2:32" s="4" customFormat="1"/>
+    <row r="128" spans="2:32" s="4" customFormat="1"/>
+    <row r="129" spans="2:2" s="4" customFormat="1"/>
+    <row r="130" spans="2:2" s="12" customFormat="1">
       <c r="B130" s="12" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
